--- a/backend/public/formatted_output.xlsx
+++ b/backend/public/formatted_output.xlsx
@@ -1082,7 +1082,7 @@
     <t>PO Attainment Table</t>
   </si>
   <si>
-    <t>CO Attainment in %</t>
+    <t>CO Attainment</t>
   </si>
   <si>
     <t>CO RESULT</t>
@@ -10606,7 +10606,7 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="I156" s="40">
-        <v>7.199999999999999</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="J156" s="40">
         <v>3.5999999999999996</v>
@@ -10661,7 +10661,7 @@
         <v>138</v>
       </c>
       <c r="I157" s="40">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J157" s="40">
         <v>136</v>
@@ -10771,7 +10771,7 @@
         <v>100</v>
       </c>
       <c r="I159" s="40">
-        <v>99.27</v>
+        <v>97.81</v>
       </c>
       <c r="J159" s="40">
         <v>100</v>
@@ -11020,13 +11020,13 @@
         <v>22</v>
       </c>
       <c r="B166" s="40">
-        <v>98.07</v>
+        <v>97.34</v>
       </c>
       <c r="C166" s="40">
         <v>63.5</v>
       </c>
       <c r="D166" s="40">
-        <v>80.78</v>
+        <v>80.42</v>
       </c>
       <c r="E166" s="40">
         <v>3</v>
@@ -11052,7 +11052,7 @@
         <v>311</v>
       </c>
       <c r="N166" s="40">
-        <v>99.27</v>
+        <v>97.81</v>
       </c>
       <c r="O166" s="40">
         <v>96.88</v>
@@ -11064,7 +11064,7 @@
         <v>311</v>
       </c>
       <c r="R166" s="40">
-        <v>98.07</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">

--- a/backend/public/formatted_output.xlsx
+++ b/backend/public/formatted_output.xlsx
@@ -2377,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S16" s="40">
         <v>47</v>
@@ -2436,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="R17" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S17" s="40">
         <v>42</v>
@@ -2495,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="R18" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S18" s="40">
         <v>26</v>
@@ -2554,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S19" s="40">
         <v>26</v>
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S20" s="40">
         <v>50</v>
@@ -2672,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="R21" s="40">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S21" s="40">
         <v>46</v>
@@ -2731,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="40">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S22" s="40">
         <v>36</v>
@@ -2790,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="R23" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S23" s="40">
         <v>42</v>
@@ -2849,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S24" s="40">
         <v>29</v>
@@ -2908,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="40">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S25" s="40">
         <v>48</v>
@@ -2967,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="R26" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S26" s="40">
         <v>51</v>
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="R27" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S27" s="40">
         <v>26</v>
@@ -3085,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="R28" s="40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S28" s="40">
         <v>44</v>
@@ -3144,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="R29" s="40">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S29" s="40">
         <v>32</v>
@@ -3203,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="R30" s="40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S30" s="40">
         <v>45</v>
@@ -3262,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S31" s="40">
         <v>40</v>
@@ -3321,7 +3321,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S32" s="40">
         <v>33</v>
@@ -3380,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S33" s="40">
         <v>40</v>
@@ -3439,7 +3439,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="S34" s="40">
         <v>34</v>
@@ -3498,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S35" s="40">
         <v>50</v>
@@ -3557,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="R36" s="40">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="S36" s="40">
         <v>57</v>
@@ -3616,7 +3616,7 @@
         <v>6</v>
       </c>
       <c r="R37" s="40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S37" s="40">
         <v>27</v>
@@ -3675,7 +3675,7 @@
         <v>6</v>
       </c>
       <c r="R38" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S38" s="40">
         <v>35</v>
@@ -3734,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="R39" s="40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S39" s="40">
         <v>33</v>
@@ -3793,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="R40" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S40" s="40">
         <v>26</v>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="R41" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S41" s="40">
         <v>42</v>
@@ -3911,7 +3911,7 @@
         <v>6</v>
       </c>
       <c r="R42" s="40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S42" s="40">
         <v>44</v>
@@ -3970,7 +3970,7 @@
         <v>6</v>
       </c>
       <c r="R43" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S43" s="40">
         <v>26</v>
@@ -4029,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="R44" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S44" s="40">
         <v>39</v>
@@ -4088,7 +4088,7 @@
         <v>6</v>
       </c>
       <c r="R45" s="40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S45" s="40">
         <v>45</v>
@@ -4147,7 +4147,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S46" s="40">
         <v>33</v>
@@ -4206,7 +4206,7 @@
         <v>6</v>
       </c>
       <c r="R47" s="40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S47" s="40">
         <v>40</v>
@@ -4265,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="R48" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S48" s="40">
         <v>47</v>
@@ -4324,7 +4324,7 @@
         <v>6</v>
       </c>
       <c r="R49" s="40">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="S49" s="40">
         <v>56</v>
@@ -4383,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="R50" s="40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S50" s="40">
         <v>45</v>
@@ -4442,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="R51" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S51" s="40">
         <v>51</v>
@@ -4501,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="R52" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S52" s="40">
         <v>51</v>
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="R53" s="40">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S53" s="40">
         <v>32</v>
@@ -4619,7 +4619,7 @@
         <v>6</v>
       </c>
       <c r="R54" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S54" s="40">
         <v>39</v>
@@ -4678,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="R55" s="40">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S55" s="40">
         <v>20</v>
@@ -4737,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="R56" s="40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="S56" s="40">
         <v>34</v>
@@ -4796,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="R57" s="40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S57" s="40">
         <v>45</v>
@@ -4855,7 +4855,7 @@
         <v>6</v>
       </c>
       <c r="R58" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S58" s="40">
         <v>26</v>
@@ -4914,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="R59" s="40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S59" s="40">
         <v>33</v>
@@ -4973,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="R60" s="40">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S60" s="40">
         <v>38</v>
@@ -5032,7 +5032,7 @@
         <v>69</v>
       </c>
       <c r="R61" s="40">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S61" s="40">
         <v>32</v>
@@ -5091,7 +5091,7 @@
         <v>6</v>
       </c>
       <c r="R62" s="40">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="S62" s="40">
         <v>54</v>
@@ -5150,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="R63" s="40">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S63" s="40">
         <v>46</v>
@@ -5209,7 +5209,7 @@
         <v>6</v>
       </c>
       <c r="R64" s="40">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S64" s="40">
         <v>38</v>
@@ -5268,7 +5268,7 @@
         <v>69</v>
       </c>
       <c r="R65" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S65" s="40">
         <v>35</v>
@@ -5327,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="R66" s="40">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S66" s="40">
         <v>28</v>
@@ -5386,7 +5386,7 @@
         <v>6</v>
       </c>
       <c r="R67" s="40">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="S67" s="40">
         <v>52</v>
@@ -5445,7 +5445,7 @@
         <v>6</v>
       </c>
       <c r="R68" s="40">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="S68" s="40">
         <v>58</v>
@@ -5563,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="R70" s="40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S70" s="40">
         <v>27</v>
@@ -5622,7 +5622,7 @@
         <v>6</v>
       </c>
       <c r="R71" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S71" s="40">
         <v>42</v>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
       <c r="R72" s="40">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S72" s="40">
         <v>48</v>
@@ -5740,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="R73" s="40">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="S73" s="40">
         <v>59</v>
@@ -5799,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="R74" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S74" s="40">
         <v>35</v>
@@ -5858,7 +5858,7 @@
         <v>6</v>
       </c>
       <c r="R75" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S75" s="40">
         <v>35</v>
@@ -5917,7 +5917,7 @@
         <v>69</v>
       </c>
       <c r="R76" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S76" s="40">
         <v>51</v>
@@ -5976,7 +5976,7 @@
         <v>6</v>
       </c>
       <c r="R77" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S77" s="40">
         <v>42</v>
@@ -6035,7 +6035,7 @@
         <v>6</v>
       </c>
       <c r="R78" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S78" s="40">
         <v>51</v>
@@ -6094,7 +6094,7 @@
         <v>6</v>
       </c>
       <c r="R79" s="40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S79" s="40">
         <v>30</v>
@@ -6153,7 +6153,7 @@
         <v>6</v>
       </c>
       <c r="R80" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S80" s="40">
         <v>47</v>
@@ -6212,7 +6212,7 @@
         <v>6</v>
       </c>
       <c r="R81" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S81" s="40">
         <v>51</v>
@@ -6271,7 +6271,7 @@
         <v>69</v>
       </c>
       <c r="R82" s="40">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S82" s="40">
         <v>38</v>
@@ -6330,7 +6330,7 @@
         <v>6</v>
       </c>
       <c r="R83" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S83" s="40">
         <v>42</v>
@@ -6389,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="R84" s="40">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="S84" s="40">
         <v>41</v>
@@ -6448,7 +6448,7 @@
         <v>6</v>
       </c>
       <c r="R85" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S85" s="40">
         <v>35</v>
@@ -6507,7 +6507,7 @@
         <v>6</v>
       </c>
       <c r="R86" s="40">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="S86" s="40">
         <v>56</v>
@@ -6566,7 +6566,7 @@
         <v>69</v>
       </c>
       <c r="R87" s="40">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S87" s="40">
         <v>28</v>
@@ -6625,7 +6625,7 @@
         <v>69</v>
       </c>
       <c r="R88" s="40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S88" s="40">
         <v>27</v>
@@ -6684,7 +6684,7 @@
         <v>6</v>
       </c>
       <c r="R89" s="40">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="S89" s="40">
         <v>41</v>
@@ -6743,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="R90" s="40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S90" s="40">
         <v>45</v>
@@ -6802,7 +6802,7 @@
         <v>6</v>
       </c>
       <c r="R91" s="40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S91" s="40">
         <v>50</v>
@@ -6861,7 +6861,7 @@
         <v>6</v>
       </c>
       <c r="R92" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S92" s="40">
         <v>51</v>
@@ -6920,7 +6920,7 @@
         <v>6</v>
       </c>
       <c r="R93" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S93" s="40">
         <v>26</v>
@@ -6979,7 +6979,7 @@
         <v>69</v>
       </c>
       <c r="R94" s="40">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S94" s="40">
         <v>28</v>
@@ -7038,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="R95" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S95" s="40">
         <v>26</v>
@@ -7097,7 +7097,7 @@
         <v>69</v>
       </c>
       <c r="R96" s="40">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S96" s="40">
         <v>32</v>
@@ -7215,7 +7215,7 @@
         <v>69</v>
       </c>
       <c r="R98" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S98" s="40">
         <v>26</v>
@@ -7274,7 +7274,7 @@
         <v>6</v>
       </c>
       <c r="R99" s="40">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S99" s="40">
         <v>53</v>
@@ -7333,7 +7333,7 @@
         <v>6</v>
       </c>
       <c r="R100" s="40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S100" s="40">
         <v>44</v>
@@ -7392,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="R101" s="40">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S101" s="40">
         <v>18</v>
@@ -7451,7 +7451,7 @@
         <v>69</v>
       </c>
       <c r="R102" s="40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S102" s="40">
         <v>50</v>
@@ -7510,7 +7510,7 @@
         <v>6</v>
       </c>
       <c r="R103" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S103" s="40">
         <v>39</v>
@@ -7569,7 +7569,7 @@
         <v>69</v>
       </c>
       <c r="R104" s="40">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S104" s="40">
         <v>46</v>
@@ -7628,7 +7628,7 @@
         <v>6</v>
       </c>
       <c r="R105" s="40">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S105" s="40">
         <v>48</v>
@@ -7687,7 +7687,7 @@
         <v>6</v>
       </c>
       <c r="R106" s="40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S106" s="40">
         <v>29</v>
@@ -7746,7 +7746,7 @@
         <v>6</v>
       </c>
       <c r="R107" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S107" s="40">
         <v>42</v>
@@ -7805,7 +7805,7 @@
         <v>6</v>
       </c>
       <c r="R108" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S108" s="40">
         <v>35</v>
@@ -7864,7 +7864,7 @@
         <v>69</v>
       </c>
       <c r="R109" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S109" s="40">
         <v>39</v>
@@ -7923,7 +7923,7 @@
         <v>6</v>
       </c>
       <c r="R110" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S110" s="40">
         <v>42</v>
@@ -7982,7 +7982,7 @@
         <v>6</v>
       </c>
       <c r="R111" s="40">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="S111" s="40">
         <v>56</v>
@@ -8041,7 +8041,7 @@
         <v>6</v>
       </c>
       <c r="R112" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S112" s="40">
         <v>42</v>
@@ -8100,7 +8100,7 @@
         <v>6</v>
       </c>
       <c r="R113" s="40">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="S113" s="40">
         <v>63</v>
@@ -8159,7 +8159,7 @@
         <v>69</v>
       </c>
       <c r="R114" s="40">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S114" s="40">
         <v>38</v>
@@ -8218,7 +8218,7 @@
         <v>6</v>
       </c>
       <c r="R115" s="40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S115" s="40">
         <v>40</v>
@@ -8277,7 +8277,7 @@
         <v>6</v>
       </c>
       <c r="R116" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S116" s="40">
         <v>42</v>
@@ -8336,7 +8336,7 @@
         <v>6</v>
       </c>
       <c r="R117" s="40">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="S117" s="40">
         <v>52</v>
@@ -8395,7 +8395,7 @@
         <v>6</v>
       </c>
       <c r="R118" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S118" s="40">
         <v>51</v>
@@ -8454,7 +8454,7 @@
         <v>6</v>
       </c>
       <c r="R119" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S119" s="40">
         <v>39</v>
@@ -8513,7 +8513,7 @@
         <v>6</v>
       </c>
       <c r="R120" s="40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S120" s="40">
         <v>44</v>
@@ -8572,7 +8572,7 @@
         <v>6</v>
       </c>
       <c r="R121" s="40">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S121" s="40">
         <v>42</v>
@@ -8631,7 +8631,7 @@
         <v>6</v>
       </c>
       <c r="R122" s="40">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S122" s="40">
         <v>28</v>
@@ -8690,7 +8690,7 @@
         <v>6</v>
       </c>
       <c r="R123" s="40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S123" s="40">
         <v>29</v>
@@ -8749,7 +8749,7 @@
         <v>6</v>
       </c>
       <c r="R124" s="40">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S124" s="40">
         <v>33</v>
@@ -8808,7 +8808,7 @@
         <v>6</v>
       </c>
       <c r="R125" s="40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="S125" s="40">
         <v>34</v>
@@ -8867,7 +8867,7 @@
         <v>6</v>
       </c>
       <c r="R126" s="40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S126" s="40">
         <v>45</v>
@@ -8926,7 +8926,7 @@
         <v>6</v>
       </c>
       <c r="R127" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S127" s="40">
         <v>51</v>
@@ -8985,7 +8985,7 @@
         <v>6</v>
       </c>
       <c r="R128" s="40">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="S128" s="40">
         <v>58</v>
@@ -9044,7 +9044,7 @@
         <v>69</v>
       </c>
       <c r="R129" s="40">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S129" s="40">
         <v>28</v>
@@ -9103,7 +9103,7 @@
         <v>6</v>
       </c>
       <c r="R130" s="40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S130" s="40">
         <v>30</v>
@@ -9162,7 +9162,7 @@
         <v>6</v>
       </c>
       <c r="R131" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S131" s="40">
         <v>47</v>
@@ -9221,7 +9221,7 @@
         <v>6</v>
       </c>
       <c r="R132" s="40">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S132" s="40">
         <v>53</v>
@@ -9280,7 +9280,7 @@
         <v>6</v>
       </c>
       <c r="R133" s="40">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S133" s="40">
         <v>36</v>
@@ -9339,7 +9339,7 @@
         <v>6</v>
       </c>
       <c r="R134" s="40">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="S134" s="40">
         <v>62</v>
@@ -9457,7 +9457,7 @@
         <v>6</v>
       </c>
       <c r="R136" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S136" s="40">
         <v>47</v>
@@ -9516,7 +9516,7 @@
         <v>6</v>
       </c>
       <c r="R137" s="40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S137" s="40">
         <v>35</v>
@@ -9575,7 +9575,7 @@
         <v>6</v>
       </c>
       <c r="R138" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S138" s="40">
         <v>39</v>
@@ -9634,7 +9634,7 @@
         <v>6</v>
       </c>
       <c r="R139" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S139" s="40">
         <v>47</v>
@@ -9693,7 +9693,7 @@
         <v>6</v>
       </c>
       <c r="R140" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S140" s="40">
         <v>26</v>
@@ -9752,7 +9752,7 @@
         <v>6</v>
       </c>
       <c r="R141" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S141" s="40">
         <v>47</v>
@@ -9811,7 +9811,7 @@
         <v>6</v>
       </c>
       <c r="R142" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S142" s="40">
         <v>26</v>
@@ -9870,7 +9870,7 @@
         <v>6</v>
       </c>
       <c r="R143" s="40">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S143" s="40">
         <v>51</v>
@@ -9929,7 +9929,7 @@
         <v>6</v>
       </c>
       <c r="R144" s="40">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S144" s="40">
         <v>50</v>
@@ -9988,7 +9988,7 @@
         <v>69</v>
       </c>
       <c r="R145" s="40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S145" s="40">
         <v>26</v>
@@ -10047,7 +10047,7 @@
         <v>6</v>
       </c>
       <c r="R146" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S146" s="40">
         <v>39</v>
@@ -10106,7 +10106,7 @@
         <v>6</v>
       </c>
       <c r="R147" s="40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S147" s="40">
         <v>27</v>
@@ -10165,7 +10165,7 @@
         <v>6</v>
       </c>
       <c r="R148" s="40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="S148" s="40">
         <v>34</v>
@@ -10224,7 +10224,7 @@
         <v>6</v>
       </c>
       <c r="R149" s="40">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S149" s="40">
         <v>32</v>
@@ -10283,7 +10283,7 @@
         <v>6</v>
       </c>
       <c r="R150" s="40">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S150" s="40">
         <v>46</v>
@@ -10342,7 +10342,7 @@
         <v>6</v>
       </c>
       <c r="R151" s="40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="S151" s="40">
         <v>34</v>
@@ -10401,7 +10401,7 @@
         <v>6</v>
       </c>
       <c r="R152" s="40">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S152" s="40">
         <v>47</v>
@@ -10460,7 +10460,7 @@
         <v>6</v>
       </c>
       <c r="R153" s="40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S153" s="40">
         <v>39</v>
@@ -10519,7 +10519,7 @@
         <v>69</v>
       </c>
       <c r="R154" s="40">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S154" s="40">
         <v>36</v>
@@ -10578,7 +10578,7 @@
         <v>69</v>
       </c>
       <c r="R155" s="40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S155" s="40">
         <v>44</v>
